--- a/docs/odh/shr-core-RelatedPerson-model.xlsx
+++ b/docs/odh/shr-core-RelatedPerson-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="98">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-RelatedPerson-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-RelatedPerson-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -190,55 +186,94 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-RelatedPerson-model.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Whether the record is in use (true) or retired (false).</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
+</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
+</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.relationship</t>
+  </si>
+  <si>
+    <t>A description of the association between people or items.</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.humanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HumanName-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Business identifier or external id for this resource.</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Person-model {[]} {[]}
+    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A person relevant to the health or social situation of the subject (including the subject him- or herself).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0027361
+    <t>An electronic means of contacting an organization or individual.</t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.administrativeGender</t>
+  </si>
+  <si>
+    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
 </t>
   </si>
   <si>
-    <t>shr-core-RelatedPerson-model.person.humanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-HumanName-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547383
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.dateOfBirth[x]</t>
+    <t>shr-core-RelatedPerson-model.birthDate[x]</t>
   </si>
   <si>
     <t>date {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
   </si>
   <si>
     <t>A date of birth or approximate year or period (year or date range), if estimated.</t>
@@ -248,37 +283,20 @@
 http://loinc.org#21112-8</t>
   </si>
   <si>
-    <t>shr-core-RelatedPerson-model.person.administrativeGender</t>
-  </si>
-  <si>
-    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
+    <t>shr-core-RelatedPerson-model.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-RelatedPerson-model.person.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Address-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682130
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.photographicImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
+    <t>shr-core-RelatedPerson-model.photographicImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -289,125 +307,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-RelatedPerson-model.person.contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An electronic means of contacting an organization or individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2986441
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Communication-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.maritalStatus</t>
-  </si>
-  <si>
-    <t>The most recent marital status of a person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0024819
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.multipleBirth[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
-  </si>
-  <si>
-    <t>If the person was part of a multiple birth event, and if so in which order.</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.birthSex</t>
-  </si>
-  <si>
-    <t>Administrative sex assigned at birth and recorded on birth certificate.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-birthsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C4086849
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Race-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Subjective association of a person with a named category of humans sharing common history, traits, place of family origin, nationality, tribe, or other inherited background.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0034510
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ethnicity-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Indicator of Hispanic or Latino origin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0015031
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.person.deceased[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
-  </si>
-  <si>
-    <t>An indication that the person is no longer living, given by a date of death, or boolean value. The latter, when true, indicates the person is deceased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0011065
-</t>
-  </si>
-  <si>
-    <t>shr-core-RelatedPerson-model.relationshipToPatient</t>
-  </si>
-  <si>
-    <t>The relationship to the person of record.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0015608
-</t>
-  </si>
-  <si>
     <t>shr-core-RelatedPerson-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -416,6 +319,16 @@
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2985763
 </t>
+  </si>
+  <si>
+    <t>shr-core-RelatedPerson-model.communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Communication-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
   </si>
 </sst>
 </file>
@@ -564,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -573,7 +486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.31640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.56640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -603,7 +516,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="55.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="48.56640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -976,7 +889,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -1008,7 +921,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1031,13 +944,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1088,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1105,7 +1018,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1128,13 +1041,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1185,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1202,7 +1115,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1213,7 +1126,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1228,10 +1141,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1258,11 +1171,13 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1280,13 +1195,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1297,7 +1212,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1320,13 +1235,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1377,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1394,7 +1309,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1417,13 +1332,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1459,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1474,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1491,7 +1406,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1514,13 +1429,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1556,7 +1471,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1571,13 +1486,13 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>36</v>
@@ -1588,7 +1503,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1611,13 +1526,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1644,16 +1559,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1668,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1685,7 +1598,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1693,7 +1606,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>41</v>
@@ -1708,13 +1621,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1741,14 +1654,16 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1763,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>41</v>
@@ -1780,7 +1695,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1803,13 +1718,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1845,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1860,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1877,7 +1792,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1888,7 +1803,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1900,13 +1815,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1933,16 +1848,14 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1957,13 +1870,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -1974,7 +1887,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1985,7 +1898,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1997,13 +1910,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2039,7 +1952,7 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2054,13 +1967,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2071,7 +1984,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2094,13 +2007,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2151,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2168,7 +2081,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2179,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>36</v>
@@ -2191,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2224,14 +2137,16 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2246,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2263,7 +2178,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2286,13 +2201,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2328,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2343,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2360,7 +2275,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2371,7 +2286,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2383,13 +2298,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2416,14 +2331,16 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2438,506 +2355,23 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI24">
+  <autoFilter ref="A1:AI19">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2947,7 +2381,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI23">
+  <conditionalFormatting sqref="A2:AI18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
